--- a/cropped_data_01.xlsx
+++ b/cropped_data_01.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d4bb8b7b503ac34/Desktop/Git Hub/filter_trials_by_start_frame/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B4D8116C41092B7C26DE8C3E3B4F388D4D4259A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03EAFC6D-0184-4AB0-AEC5-F2638D018ADF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Directory</t>
   </si>
   <si>
-    <t>Trials starting after 0 frames</t>
-  </si>
-  <si>
-    <t>Trials starting at 0 frames</t>
+    <t>Start Frame</t>
+  </si>
+  <si>
+    <t>Clipped Trials</t>
+  </si>
+  <si>
+    <t>Full Length Trials</t>
   </si>
   <si>
     <t>cropped_example</t>
   </si>
   <si>
+    <t>randomized test</t>
+  </si>
+  <si>
     <t>zero_frame_example</t>
   </si>
   <si>
@@ -37,17 +49,29 @@
     <t>BWS _Single_cropped01.c3d</t>
   </si>
   <si>
+    <t>7.c3d</t>
+  </si>
+  <si>
+    <t>BWS _Single_cropped05.c3d</t>
+  </si>
+  <si>
+    <t>BWS _Single_cropped06.c3d</t>
+  </si>
+  <si>
+    <t>BWS _Single01.c3d</t>
+  </si>
+  <si>
+    <t>BWS _Single06.c3d</t>
+  </si>
+  <si>
     <t>BWS _Single.c3d</t>
-  </si>
-  <si>
-    <t>BWS _Single01.c3d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +134,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +186,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -188,6 +220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,9 +255,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,14 +431,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,40 +456,113 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1914</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1914</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4">
+        <v>1914</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1914</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1914</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortCondition descending="1" ref="B2:B10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cropped_data_01.xlsx
+++ b/cropped_data_01.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d4bb8b7b503ac34/Desktop/Git Hub/filter_trials_by_start_frame/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B4D8116C41092B7C26DE8C3E3B4F388D4D4259A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03EAFC6D-0184-4AB0-AEC5-F2638D018ADF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,13 +28,13 @@
     <t>Full Length Trials</t>
   </si>
   <si>
-    <t>cropped_example</t>
-  </si>
-  <si>
-    <t>randomized test</t>
-  </si>
-  <si>
-    <t>zero_frame_example</t>
+    <t>C:/Users/patk1/OneDrive/Desktop/Git Hub/filter_trials_by_start_frame\cropped_example</t>
+  </si>
+  <si>
+    <t>C:/Users/patk1/OneDrive/Desktop/Git Hub/filter_trials_by_start_frame\randomized test</t>
+  </si>
+  <si>
+    <t>C:/Users/patk1/OneDrive/Desktop/Git Hub/filter_trials_by_start_frame\zero_frame_example</t>
   </si>
   <si>
     <t>BWS _Single_cropped.c3d</t>
@@ -70,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,21 +128,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +172,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -220,7 +206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,10 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,22 +415,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="137.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -471,7 +453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -482,7 +464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -493,51 +475,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1914</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1914</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1914</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1914</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -548,7 +530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -560,9 +542,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
-    <sortCondition descending="1" ref="B2:B10"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>